--- a/Excel de Wild Brews.xlsx
+++ b/Excel de Wild Brews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Lic. 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E05C4EF-D9C6-439B-B894-A338CC004FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016FED6-39E4-401B-8007-773B0981A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6CFE751-B880-4640-AD1C-8960303BAD75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{D6CFE751-B880-4640-AD1C-8960303BAD75}"/>
   </bookViews>
   <sheets>
     <sheet name="IM" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -274,30 +274,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -307,14 +326,42 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,64 +697,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6829ACE5-6DC8-4A70-904F-5480E0A047CB}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,61 +748,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5D7A4-697D-4B82-A55A-47410F423FF6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -777,59 +796,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D324466-D210-460C-B54A-05DAA2BC04CF}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -843,89 +850,89 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -939,66 +946,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6DDAF8-B5A8-4BA7-97A3-AA3057D826D3}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10">
+      <c r="B4" s="16">
         <v>0.5</v>
       </c>
-      <c r="F3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel de Wild Brews.xlsx
+++ b/Excel de Wild Brews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016FED6-39E4-401B-8007-773B0981A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221C1F0-698A-4CF9-ACED-DBA6FC107256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{D6CFE751-B880-4640-AD1C-8960303BAD75}"/>
   </bookViews>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
-  <si>
-    <t>Importaciones por conceptos de bebidas en Canadá en los últimos 3 años</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Año 2022</t>
   </si>
@@ -63,9 +60,6 @@
     <t>$543,195</t>
   </si>
   <si>
-    <t>Valoración del mercado de kombucha de los últimos 3 años</t>
-  </si>
-  <si>
     <t>$192,750</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>$141,150</t>
-  </si>
-  <si>
-    <t>Volumen proyectado de consumo por segmento</t>
   </si>
   <si>
     <t>Mayores de 55 años</t>
@@ -98,9 +89,6 @@
     <t>Bajo</t>
   </si>
   <si>
-    <t>Competidores más importantes por diferenciador</t>
-  </si>
-  <si>
     <t>Competidor</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
   </si>
   <si>
     <t>Alto</t>
-  </si>
-  <si>
-    <t>Efecto de cobertura de estrategia de fidelización</t>
   </si>
   <si>
     <t>Programa de recompensas con descuentos y acceso anticipado.</t>
@@ -160,26 +145,37 @@
   <si>
     <t xml:space="preserve">Participación en redes sociales 
 (Instagram, Facebook, TikTok). </t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>SEGMENTO</t>
+  </si>
+  <si>
+    <t>VOLUMEN PROYECTADO</t>
+  </si>
+  <si>
+    <t>Estrategia de fidelización</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -315,54 +311,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,7 +688,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,40 +696,39 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -751,45 +738,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -799,55 +785,54 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAD4BD0-2304-4A15-82F0-E0C5D29FA3C0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,29 +844,37 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -896,99 +889,77 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6DDAF8-B5A8-4BA7-97A3-AA3057D826D3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="16">
+    <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="16">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="16">
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel de Wild Brews.xlsx
+++ b/Excel de Wild Brews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221C1F0-698A-4CF9-ACED-DBA6FC107256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6FAE5-B0DB-4704-80FA-4C239FD1DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{D6CFE751-B880-4640-AD1C-8960303BAD75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{D6CFE751-B880-4640-AD1C-8960303BAD75}"/>
   </bookViews>
   <sheets>
     <sheet name="IM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Año 2022</t>
   </si>
@@ -49,24 +49,6 @@
   </si>
   <si>
     <t>Año 2024</t>
-  </si>
-  <si>
-    <t>$515,683</t>
-  </si>
-  <si>
-    <t>$552,696</t>
-  </si>
-  <si>
-    <t>$543,195</t>
-  </si>
-  <si>
-    <t>$192,750</t>
-  </si>
-  <si>
-    <t>$164,980</t>
-  </si>
-  <si>
-    <t>$141,150</t>
   </si>
   <si>
     <t>Mayores de 55 años</t>
@@ -311,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -350,7 +332,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +671,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,34 +681,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="B2" s="4">
+        <v>515683</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="4">
+        <v>552696</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>543195</v>
       </c>
     </row>
   </sheetData>
@@ -738,41 +721,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="15">
+        <v>141150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="B3" s="15">
+        <v>164980</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="15">
+        <v>192750</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D324466-D210-460C-B54A-05DAA2BC04CF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -792,34 +775,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -846,70 +829,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6DDAF8-B5A8-4BA7-97A3-AA3057D826D3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -929,15 +912,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="9">
         <v>0.25</v>
@@ -945,7 +928,7 @@
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9">
         <v>0.25</v>
@@ -953,7 +936,7 @@
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9">
         <v>0.5</v>
